--- a/sampledata/cbs_hand_read_0312.xlsx
+++ b/sampledata/cbs_hand_read_0312.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584F73B-FEE6-0C49-924E-79CA6143ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FCF39-7CF3-E24E-8ED9-83CD6CDBF424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="1040" windowWidth="22480" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="500" windowWidth="22480" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - cbs_hand_read_0116" sheetId="1" r:id="rId1"/>
@@ -2181,8 +2181,8 @@
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
